--- a/Firmware/Current Ranges and Crossovers.xlsx
+++ b/Firmware/Current Ranges and Crossovers.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="29">
   <si>
     <t>Tolerance</t>
   </si>
@@ -469,8 +469,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -481,12 +483,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -920,11 +920,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="203698672"/>
-        <c:axId val="203700352"/>
+        <c:axId val="74566560"/>
+        <c:axId val="74565440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="203698672"/>
+        <c:axId val="74566560"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -934,7 +934,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="203700352"/>
+        <c:crossAx val="74565440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -942,7 +942,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="203700352"/>
+        <c:axId val="74565440"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -955,7 +955,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="203698672"/>
+        <c:crossAx val="74566560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1129,11 +1129,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="203704832"/>
-        <c:axId val="203705392"/>
+        <c:axId val="190537744"/>
+        <c:axId val="190538864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="203704832"/>
+        <c:axId val="190537744"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1143,7 +1143,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="203705392"/>
+        <c:crossAx val="190538864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1151,7 +1151,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="203705392"/>
+        <c:axId val="190538864"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1164,7 +1164,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="203704832"/>
+        <c:crossAx val="190537744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1321,16 +1321,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>257628</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>148771</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>54429</xdr:rowOff>
+      <xdr:rowOff>462643</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>791028</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>159017</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>682170</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>159016</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1772,41 +1772,41 @@
   <sheetData>
     <row r="1" spans="1:31" ht="209.1" customHeight="1"/>
     <row r="3" spans="1:31" ht="27.95" customHeight="1">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="12"/>
+      <c r="D3" s="14"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12" t="s">
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="V3" s="12" t="s">
+      <c r="V3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="12" t="s">
+      <c r="W3" s="14" t="s">
         <v>13</v>
       </c>
       <c r="X3" s="2"/>
@@ -1819,8 +1819,8 @@
       <c r="AE3" s="2"/>
     </row>
     <row r="4" spans="1:31" ht="27.95" customHeight="1">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="7" t="s">
         <v>3</v>
       </c>
@@ -1830,32 +1830,32 @@
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12" t="s">
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12" t="s">
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12" t="s">
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
@@ -1917,15 +1917,15 @@
         <f>IF(A5,IF(L5&gt;1,"A",IF(L5&gt;0.001,"mA",IF(L5&gt;0.000001,"uA",IF(L5&gt;0.000000001,"nA","")))),"")</f>
         <v>A</v>
       </c>
-      <c r="O5" s="11">
+      <c r="O5" s="17">
         <f>IF(A6,I6-F5,"")</f>
         <v>0.29777343750000002</v>
       </c>
-      <c r="P5" s="13">
+      <c r="P5" s="15">
         <f>IF(A6,IF(O5&gt;1,O5,IF(O5&gt;0.001,O5*1000,IF(O5&gt;0.000001,1000000*O5,IF(O5&gt;O5&gt;0.000000001,O5*1000000000,"")))),"")</f>
         <v>297.7734375</v>
       </c>
-      <c r="Q5" s="14" t="str">
+      <c r="Q5" s="16" t="str">
         <f>IF(A6,IF(G5,IF(O5&gt;1,"A",IF(O5&gt;0.001,"mA",IF(O5&gt;0.000001,"uA",IF(O5&gt;0.000000001,"nA","")))),""),"")</f>
         <v>mA</v>
       </c>
@@ -1993,18 +1993,18 @@
         <f t="shared" ref="N6:N18" si="12">IF(A6,IF(L6&gt;1,"A",IF(L6&gt;0.001,"mA",IF(L6&gt;0.000001,"uA",IF(L6&gt;0.000000001,"nA","")))),"")</f>
         <v>mA</v>
       </c>
-      <c r="O6" s="11"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="11">
+      <c r="O6" s="17"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="17">
         <f>IF(A7,I7-F6,"")</f>
         <v>3.1388671875000003E-2</v>
       </c>
-      <c r="S6" s="13">
+      <c r="S6" s="15">
         <f>IF(A7,IF(R6&gt;1,R6,IF(R6&gt;0.001,R6*1000,IF(R6&gt;0.000001,1000000*R6,IF(R6&gt;R6&gt;0.000000001,R6*1000000000,"")))),"")</f>
         <v>31.388671875000004</v>
       </c>
-      <c r="T6" s="14" t="str">
+      <c r="T6" s="16" t="str">
         <f>IF(A7,IF(J6,IF(R6&gt;1,"A",IF(R6&gt;0.001,"mA",IF(R6&gt;0.000001,"uA",IF(R6&gt;0.000000001,"nA","")))),""),"")</f>
         <v>mA</v>
       </c>
@@ -2071,21 +2071,21 @@
         <f t="shared" si="12"/>
         <v>mA</v>
       </c>
-      <c r="O7" s="11">
+      <c r="O7" s="17">
         <f t="shared" ref="O7" si="15">IF(A8,I8-F7,"")</f>
         <v>3.1388671874999999E-3</v>
       </c>
-      <c r="P7" s="13">
+      <c r="P7" s="15">
         <f t="shared" ref="P7" si="16">IF(A8,IF(O7&gt;1,O7,IF(O7&gt;0.001,O7*1000,IF(O7&gt;0.000001,1000000*O7,IF(O7&gt;O7&gt;0.000000001,O7*1000000000,"")))),"")</f>
         <v>3.1388671874999998</v>
       </c>
-      <c r="Q7" s="14" t="str">
+      <c r="Q7" s="16" t="str">
         <f t="shared" ref="Q7" si="17">IF(A8,IF(G7,IF(O7&gt;1,"A",IF(O7&gt;0.001,"mA",IF(O7&gt;0.000001,"uA",IF(O7&gt;0.000000001,"nA","")))),""),"")</f>
         <v>mA</v>
       </c>
-      <c r="R7" s="11"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="14"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="16"/>
       <c r="U7" s="4">
         <f t="shared" si="6"/>
         <v>1.089</v>
@@ -2149,18 +2149,18 @@
         <f t="shared" si="12"/>
         <v>mA</v>
       </c>
-      <c r="O8" s="11"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="11">
+      <c r="O8" s="17"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="17">
         <f t="shared" ref="R8" si="18">IF(A9,I9-F8,"")</f>
         <v>3.1388671874999998E-4</v>
       </c>
-      <c r="S8" s="13">
+      <c r="S8" s="15">
         <f>IF(A9,IF(R8&gt;1,R8,IF(R8&gt;0.001,R8*1000,IF(R8&gt;0.000001,1000000*R8,IF(R8&gt;R8&gt;0.000000001,R8*1000000000,"")))),"")</f>
         <v>313.88671875</v>
       </c>
-      <c r="T8" s="14" t="str">
+      <c r="T8" s="16" t="str">
         <f>IF(A9,IF(J8,IF(R8&gt;1,"A",IF(R8&gt;0.001,"mA",IF(R8&gt;0.000001,"uA",IF(R8&gt;0.000000001,"nA","")))),""),"")</f>
         <v>uA</v>
       </c>
@@ -2227,21 +2227,21 @@
         <f t="shared" si="12"/>
         <v>uA</v>
       </c>
-      <c r="O9" s="11">
+      <c r="O9" s="17">
         <f t="shared" ref="O9" si="19">IF(A10,I10-F9,"")</f>
         <v>3.1388671875000004E-5</v>
       </c>
-      <c r="P9" s="13">
+      <c r="P9" s="15">
         <f t="shared" ref="P9" si="20">IF(A10,IF(O9&gt;1,O9,IF(O9&gt;0.001,O9*1000,IF(O9&gt;0.000001,1000000*O9,IF(O9&gt;O9&gt;0.000000001,O9*1000000000,"")))),"")</f>
         <v>31.388671875000004</v>
       </c>
-      <c r="Q9" s="14" t="str">
+      <c r="Q9" s="16" t="str">
         <f t="shared" ref="Q9" si="21">IF(A10,IF(G9,IF(O9&gt;1,"A",IF(O9&gt;0.001,"mA",IF(O9&gt;0.000001,"uA",IF(O9&gt;0.000000001,"nA","")))),""),"")</f>
         <v>uA</v>
       </c>
-      <c r="R9" s="11"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="14"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="16"/>
       <c r="U9" s="4">
         <f t="shared" si="6"/>
         <v>1.089E-2</v>
@@ -2305,18 +2305,18 @@
         <f t="shared" si="12"/>
         <v>uA</v>
       </c>
-      <c r="O10" s="11"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="11">
+      <c r="O10" s="17"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="17">
         <f t="shared" ref="R10" si="22">IF(A11,I11-F10,"")</f>
         <v>3.1388671875000004E-6</v>
       </c>
-      <c r="S10" s="13">
+      <c r="S10" s="15">
         <f>IF(A11,IF(R10&gt;1,R10,IF(R10&gt;0.001,R10*1000,IF(R10&gt;0.000001,1000000*R10,IF(R10&gt;R10&gt;0.000000001,R10*1000000000,"")))),"")</f>
         <v>3.1388671875000003</v>
       </c>
-      <c r="T10" s="14" t="str">
+      <c r="T10" s="16" t="str">
         <f>IF(A11,IF(J10,IF(R10&gt;1,"A",IF(R10&gt;0.001,"mA",IF(R10&gt;0.000001,"uA",IF(R10&gt;0.000000001,"nA","")))),""),"")</f>
         <v>uA</v>
       </c>
@@ -2383,21 +2383,21 @@
         <f t="shared" si="12"/>
         <v>uA</v>
       </c>
-      <c r="O11" s="11">
+      <c r="O11" s="17">
         <f t="shared" ref="O11" si="25">IF(A12,I12-F11,"")</f>
         <v>3.1388671875E-7</v>
       </c>
-      <c r="P11" s="13">
+      <c r="P11" s="15">
         <f t="shared" ref="P11" si="26">IF(A12,IF(O11&gt;1,O11,IF(O11&gt;0.001,O11*1000,IF(O11&gt;0.000001,1000000*O11,IF(O11&gt;O11&gt;0.000000001,O11*1000000000,"")))),"")</f>
         <v>313.88671875</v>
       </c>
-      <c r="Q11" s="14" t="str">
+      <c r="Q11" s="16" t="str">
         <f t="shared" ref="Q11" si="27">IF(A12,IF(G11,IF(O11&gt;1,"A",IF(O11&gt;0.001,"mA",IF(O11&gt;0.000001,"uA",IF(O11&gt;0.000000001,"nA","")))),""),"")</f>
         <v>nA</v>
       </c>
-      <c r="R11" s="11"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="14"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="16"/>
       <c r="U11" s="4">
         <f t="shared" si="6"/>
         <v>1.089E-4</v>
@@ -2461,18 +2461,18 @@
         <f t="shared" si="12"/>
         <v>nA</v>
       </c>
-      <c r="O12" s="11"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="11" t="str">
+      <c r="O12" s="17"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="17" t="str">
         <f t="shared" ref="R12" si="28">IF(A13,I13-F12,"")</f>
         <v/>
       </c>
-      <c r="S12" s="13" t="str">
+      <c r="S12" s="15" t="str">
         <f>IF(A13,IF(R12&gt;1,R12,IF(R12&gt;0.001,R12*1000,IF(R12&gt;0.000001,1000000*R12,IF(R12&gt;R12&gt;0.000000001,R12*1000000000,"")))),"")</f>
         <v/>
       </c>
-      <c r="T12" s="14" t="str">
+      <c r="T12" s="16" t="str">
         <f>IF(A13,IF(J12,IF(R12&gt;1,"A",IF(R12&gt;0.001,"mA",IF(R12&gt;0.000001,"uA",IF(R12&gt;0.000000001,"nA","")))),""),"")</f>
         <v/>
       </c>
@@ -2536,21 +2536,21 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="O13" s="11" t="str">
+      <c r="O13" s="17" t="str">
         <f t="shared" ref="O13" si="29">IF(A14,I14-F13,"")</f>
         <v/>
       </c>
-      <c r="P13" s="13" t="str">
+      <c r="P13" s="15" t="str">
         <f t="shared" ref="P13" si="30">IF(A14,IF(O13&gt;1,O13,IF(O13&gt;0.001,O13*1000,IF(O13&gt;0.000001,1000000*O13,IF(O13&gt;O13&gt;0.000000001,O13*1000000000,"")))),"")</f>
         <v/>
       </c>
-      <c r="Q13" s="14" t="str">
+      <c r="Q13" s="16" t="str">
         <f t="shared" ref="Q13" si="31">IF(A14,IF(G13,IF(O13&gt;1,"A",IF(O13&gt;0.001,"mA",IF(O13&gt;0.000001,"uA",IF(O13&gt;0.000000001,"nA","")))),""),"")</f>
         <v/>
       </c>
-      <c r="R13" s="11"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="14"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="16"/>
       <c r="U13" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -2611,18 +2611,18 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="O14" s="11"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="11" t="str">
+      <c r="O14" s="17"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="17" t="str">
         <f t="shared" ref="R14" si="33">IF(A15,I15-F14,"")</f>
         <v/>
       </c>
-      <c r="S14" s="13" t="str">
+      <c r="S14" s="15" t="str">
         <f>IF(A15,IF(R14&gt;1,R14,IF(R14&gt;0.001,R14*1000,IF(R14&gt;0.000001,1000000*R14,IF(R14&gt;R14&gt;0.000000001,R14*1000000000,"")))),"")</f>
         <v/>
       </c>
-      <c r="T14" s="14" t="str">
+      <c r="T14" s="16" t="str">
         <f>IF(A15,IF(J14,IF(R14&gt;1,"A",IF(R14&gt;0.001,"mA",IF(R14&gt;0.000001,"uA",IF(R14&gt;0.000000001,"nA","")))),""),"")</f>
         <v/>
       </c>
@@ -2686,21 +2686,21 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="O15" s="11" t="str">
+      <c r="O15" s="17" t="str">
         <f t="shared" ref="O15" si="34">IF(A16,I16-F15,"")</f>
         <v/>
       </c>
-      <c r="P15" s="13" t="str">
+      <c r="P15" s="15" t="str">
         <f t="shared" ref="P15" si="35">IF(A16,IF(O15&gt;1,O15,IF(O15&gt;0.001,O15*1000,IF(O15&gt;0.000001,1000000*O15,IF(O15&gt;O15&gt;0.000000001,O15*1000000000,"")))),"")</f>
         <v/>
       </c>
-      <c r="Q15" s="14" t="str">
+      <c r="Q15" s="16" t="str">
         <f t="shared" ref="Q15" si="36">IF(A16,IF(G15,IF(O15&gt;1,"A",IF(O15&gt;0.001,"mA",IF(O15&gt;0.000001,"uA",IF(O15&gt;0.000000001,"nA","")))),""),"")</f>
         <v/>
       </c>
-      <c r="R15" s="11"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="14"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="16"/>
       <c r="U15" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -2761,18 +2761,18 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="O16" s="11"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="11" t="str">
+      <c r="O16" s="17"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="17" t="str">
         <f t="shared" ref="R16" si="37">IF(A17,I17-F16,"")</f>
         <v/>
       </c>
-      <c r="S16" s="13" t="str">
+      <c r="S16" s="15" t="str">
         <f>IF(A17,IF(R16&gt;1,R16,IF(R16&gt;0.001,R16*1000,IF(R16&gt;0.000001,1000000*R16,IF(R16&gt;R16&gt;0.000000001,R16*1000000000,"")))),"")</f>
         <v/>
       </c>
-      <c r="T16" s="14" t="str">
+      <c r="T16" s="16" t="str">
         <f>IF(A17,IF(J16,IF(R16&gt;1,"A",IF(R16&gt;0.001,"mA",IF(R16&gt;0.000001,"uA",IF(R16&gt;0.000000001,"nA","")))),""),"")</f>
         <v/>
       </c>
@@ -2836,21 +2836,21 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="O17" s="11" t="str">
+      <c r="O17" s="17" t="str">
         <f t="shared" ref="O17" si="38">IF(A18,I18-F17,"")</f>
         <v/>
       </c>
-      <c r="P17" s="13" t="str">
+      <c r="P17" s="15" t="str">
         <f t="shared" ref="P17" si="39">IF(A18,IF(O17&gt;1,O17,IF(O17&gt;0.001,O17*1000,IF(O17&gt;0.000001,1000000*O17,IF(O17&gt;O17&gt;0.000000001,O17*1000000000,"")))),"")</f>
         <v/>
       </c>
-      <c r="Q17" s="14" t="str">
+      <c r="Q17" s="16" t="str">
         <f t="shared" ref="Q17" si="40">IF(A18,IF(G17,IF(O17&gt;1,"A",IF(O17&gt;0.001,"mA",IF(O17&gt;0.000001,"uA",IF(O17&gt;0.000000001,"nA","")))),""),"")</f>
         <v/>
       </c>
-      <c r="R17" s="11"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="14"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="16"/>
       <c r="U17" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -2911,9 +2911,9 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="O18" s="11"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="14"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="16"/>
       <c r="R18" s="9"/>
       <c r="U18" s="4" t="str">
         <f t="shared" si="6"/>
@@ -3028,28 +3028,17 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="F3:T3"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="S12:S13"/>
-    <mergeCell ref="T12:T13"/>
-    <mergeCell ref="S14:S15"/>
-    <mergeCell ref="T14:T15"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="T16:T17"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="Q11:Q12"/>
     <mergeCell ref="R12:R13"/>
     <mergeCell ref="R14:R15"/>
     <mergeCell ref="O5:O6"/>
@@ -3063,21 +3052,32 @@
     <mergeCell ref="R6:R7"/>
     <mergeCell ref="R8:R9"/>
     <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O4:T4"/>
     <mergeCell ref="P5:P6"/>
     <mergeCell ref="Q5:Q6"/>
     <mergeCell ref="P7:P8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="T14:T15"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="T16:T17"/>
+    <mergeCell ref="F3:T3"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="O4:T4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -3092,14 +3092,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z25"/>
+  <dimension ref="A1:W25"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:G10"/>
+      <selection activeCell="G16" sqref="B16:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="12.5" customWidth="1"/>
     <col min="5" max="5" width="7.5" customWidth="1"/>
     <col min="6" max="6" width="14.125" customWidth="1"/>
@@ -3114,29 +3115,29 @@
   <sheetData>
     <row r="1" spans="1:23" ht="129" customHeight="1"/>
     <row r="3" spans="1:23" ht="27.95" customHeight="1">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="12"/>
+      <c r="D3" s="14"/>
       <c r="E3" s="8"/>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
@@ -3147,8 +3148,8 @@
       <c r="W3" s="2"/>
     </row>
     <row r="4" spans="1:23" ht="27.95" customHeight="1">
-      <c r="A4" s="15"/>
-      <c r="B4" s="12"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
@@ -3161,21 +3162,21 @@
       <c r="F4" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12" t="s">
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12" t="s">
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
@@ -3443,35 +3444,35 @@
       <c r="N10" s="4"/>
     </row>
     <row r="11" spans="1:23">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" t="s">
@@ -3484,16 +3485,16 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D12">
-        <v>5.0000000000000001E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="E12">
         <v>6.9999999999999999E-4</v>
       </c>
       <c r="F12">
-        <v>9.9999999999999995E-7</v>
+        <v>4.9999999999999998E-7</v>
       </c>
       <c r="G12">
-        <v>1E-4</v>
+        <v>2.5000000000000001E-4</v>
       </c>
       <c r="H12" s="4"/>
       <c r="K12" s="4"/>
@@ -3513,7 +3514,7 @@
       </c>
       <c r="D13">
         <f>ROUND(D12/G6,0)</f>
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="E13">
         <f>ROUND(E12/F7,0)</f>
@@ -3521,11 +3522,11 @@
       </c>
       <c r="F13">
         <f>ROUND(F12/F7,0)</f>
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="G13">
         <f>ROUND(G12/G8,0)</f>
-        <v>16384</v>
+        <v>40960</v>
       </c>
       <c r="H13" s="4"/>
       <c r="K13" s="4"/>
@@ -3545,7 +3546,7 @@
       </c>
       <c r="D14">
         <f>D12*B6</f>
-        <v>5.0000000000000001E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="E14">
         <f>E12*B7</f>
@@ -3553,11 +3554,11 @@
       </c>
       <c r="F14">
         <f>F12*B7</f>
-        <v>9.9999999999999991E-5</v>
+        <v>4.9999999999999996E-5</v>
       </c>
       <c r="G14">
         <f>G12*B8</f>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="H14" s="4"/>
       <c r="K14" s="4"/>
@@ -3573,17 +3574,17 @@
       <c r="K16" s="4"/>
       <c r="N16" s="4"/>
     </row>
-    <row r="17" spans="2:26">
+    <row r="17" spans="2:15">
       <c r="H17" s="4"/>
       <c r="K17" s="4"/>
       <c r="N17" s="4"/>
     </row>
-    <row r="18" spans="2:26">
+    <row r="18" spans="2:15">
       <c r="H18" s="4"/>
       <c r="K18" s="4"/>
       <c r="N18" s="4"/>
     </row>
-    <row r="19" spans="2:26">
+    <row r="19" spans="2:15">
       <c r="B19" t="s">
         <v>8</v>
       </c>
@@ -3623,50 +3624,35 @@
       <c r="O19" t="s">
         <v>8</v>
       </c>
-      <c r="P19" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>8</v>
-      </c>
-      <c r="R19" t="s">
-        <v>8</v>
-      </c>
-      <c r="S19" t="s">
-        <v>8</v>
-      </c>
-      <c r="T19" t="s">
-        <v>8</v>
-      </c>
-      <c r="U19" t="s">
-        <v>8</v>
-      </c>
-      <c r="V19" t="s">
-        <v>8</v>
-      </c>
-      <c r="W19" t="s">
-        <v>8</v>
-      </c>
-      <c r="X19" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="2:26">
+    </row>
+    <row r="22" spans="2:15">
+      <c r="B22">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C22">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D22">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E22">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="F22">
+        <v>4.9999999999999998E-7</v>
+      </c>
+      <c r="G22">
+        <v>2.5000000000000001E-4</v>
+      </c>
       <c r="I22" s="3"/>
     </row>
-    <row r="23" spans="2:26">
+    <row r="23" spans="2:15">
       <c r="I23" s="3"/>
     </row>
-    <row r="24" spans="2:26">
+    <row r="24" spans="2:15">
       <c r="I24" s="3"/>
     </row>
-    <row r="25" spans="2:26">
+    <row r="25" spans="2:15">
       <c r="I25" s="3"/>
     </row>
   </sheetData>
